--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1195858.873040199</v>
+        <v>1193934.269473342</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155031</v>
+        <v>3180051.965155032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>39.13297274628661</v>
+        <v>173.8364216879749</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -716,7 +716,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>155.9229224687928</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>24.50327750492397</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6773952840984085</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>293.9773665191175</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>341.8733101690319</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>107.7375270173109</v>
+        <v>14.93452779272218</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>196.2804842470836</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>341.8733101690339</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>341.8733101690339</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373487</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3706418758996</v>
+        <v>155.4495024033711</v>
       </c>
       <c r="U6" t="n">
-        <v>107.0098626486908</v>
+        <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086004</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>247.1935237523241</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>25.52868862014549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>132.7704058231768</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>114.0029754731659</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273989</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.00108914720025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>137.8140118566888</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>61.81052995517192</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.35146980185863</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.55960582285805</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>8.525532102719779</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773848</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>10.86101695903935</v>
       </c>
       <c r="S25" t="n">
-        <v>96.75879645508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
         <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V25" t="n">
         <v>233.7365577809757</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.6669897216801</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>32.85268227647394</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141965</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094044</v>
+        <v>91.56326686094049</v>
       </c>
       <c r="S28" t="n">
         <v>179.5197244407509</v>
@@ -2767,10 +2767,10 @@
         <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
         <v>130.21438747536</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21.41368075427353</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094049</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
         <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557251</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>149.2210996786201</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310015</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
         <v>259.620368340494</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3521,7 +3521,7 @@
         <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555828</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U38" t="n">
         <v>182.9467051201603</v>
@@ -3563,7 +3563,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3746,7 +3746,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310013</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555822</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555815</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088612</v>
@@ -4037,7 +4037,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877726</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="C2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="D2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="E2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="F2" t="n">
-        <v>268.7400916658171</v>
+        <v>197.6848662355571</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
+        <v>22.09252109618844</v>
+      </c>
+      <c r="J2" t="n">
         <v>22.09252109618843</v>
-      </c>
-      <c r="J2" t="n">
-        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228791</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>529.5587134138199</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U2" t="n">
-        <v>275.6855924150206</v>
+        <v>483.5763404214833</v>
       </c>
       <c r="V2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="W2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="X2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.6855924150206</v>
+        <v>204.6303669847605</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476.7989437360102</v>
+        <v>345.4799600385667</v>
       </c>
       <c r="C3" t="n">
-        <v>476.7989437360102</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="D3" t="n">
-        <v>327.864534074759</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618843</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2479876888894</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>541.6429362542212</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196393</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="U3" t="n">
-        <v>476.7989437360102</v>
+        <v>578.0822456026086</v>
       </c>
       <c r="V3" t="n">
-        <v>476.7989437360102</v>
+        <v>578.0822456026086</v>
       </c>
       <c r="W3" t="n">
-        <v>476.7989437360102</v>
+        <v>578.0822456026086</v>
       </c>
       <c r="X3" t="n">
-        <v>476.7989437360102</v>
+        <v>370.2307453970758</v>
       </c>
       <c r="Y3" t="n">
-        <v>476.7989437360102</v>
+        <v>345.4799600385667</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.3084793424303</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>143.1211504286968</v>
+        <v>889.9172733687413</v>
       </c>
       <c r="C5" t="n">
-        <v>143.1211504286968</v>
+        <v>889.9172733687413</v>
       </c>
       <c r="D5" t="n">
-        <v>143.1211504286968</v>
+        <v>592.9704385009459</v>
       </c>
       <c r="E5" t="n">
-        <v>143.1211504286968</v>
+        <v>247.6438625726308</v>
       </c>
       <c r="F5" t="n">
-        <v>136.1756496794933</v>
+        <v>240.6983618234274</v>
       </c>
       <c r="G5" t="n">
-        <v>27.34986481352271</v>
+        <v>225.6129802146171</v>
       </c>
       <c r="H5" t="n">
-        <v>27.34986481352271</v>
+        <v>225.6129802146171</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082025</v>
+        <v>46.45889488081946</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943464</v>
+        <v>195.8431816943447</v>
       </c>
       <c r="L5" t="n">
-        <v>433.444226490979</v>
+        <v>433.4442264909762</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203075</v>
+        <v>714.4277151203036</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090389</v>
+        <v>985.3258128090337</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860208</v>
+        <v>1195.939566860202</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313933</v>
+        <v>1338.019150313926</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676128</v>
       </c>
       <c r="R5" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676128</v>
       </c>
       <c r="S5" t="n">
-        <v>1164.837189628902</v>
+        <v>1367.493240676128</v>
       </c>
       <c r="T5" t="n">
-        <v>1164.837189628902</v>
+        <v>1143.772016934442</v>
       </c>
       <c r="U5" t="n">
-        <v>1164.837189628902</v>
+        <v>889.9172733687413</v>
       </c>
       <c r="V5" t="n">
-        <v>833.7743022853309</v>
+        <v>889.9172733687413</v>
       </c>
       <c r="W5" t="n">
-        <v>488.4477263570138</v>
+        <v>889.9172733687413</v>
       </c>
       <c r="X5" t="n">
-        <v>143.1211504286968</v>
+        <v>889.9172733687413</v>
       </c>
       <c r="Y5" t="n">
-        <v>143.1211504286968</v>
+        <v>889.9172733687413</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360.7770184151127</v>
+        <v>436.5663644066945</v>
       </c>
       <c r="C6" t="n">
-        <v>360.7770184151127</v>
+        <v>436.5663644066945</v>
       </c>
       <c r="D6" t="n">
-        <v>360.7770184151127</v>
+        <v>436.5663644066945</v>
       </c>
       <c r="E6" t="n">
-        <v>360.7770184151127</v>
+        <v>277.328909401239</v>
       </c>
       <c r="F6" t="n">
-        <v>360.7770184151127</v>
+        <v>277.328909401239</v>
       </c>
       <c r="G6" t="n">
-        <v>222.2451925632575</v>
+        <v>138.7970835493838</v>
       </c>
       <c r="H6" t="n">
-        <v>110.7979738273963</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="J6" t="n">
-        <v>45.03769252864053</v>
+        <v>45.03769252864002</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1143406039002</v>
+        <v>104.0939680021698</v>
       </c>
       <c r="L6" t="n">
-        <v>395.4258200207029</v>
+        <v>376.4054474189718</v>
       </c>
       <c r="M6" t="n">
-        <v>733.8803970880465</v>
+        <v>714.8600244863134</v>
       </c>
       <c r="N6" t="n">
-        <v>1072.33497415539</v>
+        <v>1053.314601553655</v>
       </c>
       <c r="O6" t="n">
-        <v>1367.493240676136</v>
+        <v>1053.314601553655</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.493240676136</v>
+        <v>1273.202064371582</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676128</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676128</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.493240676136</v>
+        <v>1197.772225775992</v>
       </c>
       <c r="T6" t="n">
-        <v>1166.108753932803</v>
+        <v>1040.752526378648</v>
       </c>
       <c r="U6" t="n">
-        <v>1058.01798358059</v>
+        <v>812.5420001917164</v>
       </c>
       <c r="V6" t="n">
-        <v>822.8658753488471</v>
+        <v>812.5420001917164</v>
       </c>
       <c r="W6" t="n">
-        <v>568.6285186206455</v>
+        <v>812.5420001917164</v>
       </c>
       <c r="X6" t="n">
-        <v>360.7770184151127</v>
+        <v>812.5420001917164</v>
       </c>
       <c r="Y6" t="n">
-        <v>360.7770184151127</v>
+        <v>604.7817014267625</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="C7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="D7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="E7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="F7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="G7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953553</v>
+        <v>78.97414292953493</v>
       </c>
       <c r="M7" t="n">
-        <v>143.793829039479</v>
+        <v>143.7938290394779</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147033</v>
+        <v>212.5068643147017</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039162</v>
+        <v>259.9581784039142</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461732</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461732</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461732</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461732</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461732</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461755</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="V7" t="n">
-        <v>277.0402928461755</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="W7" t="n">
-        <v>277.0402928461755</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="X7" t="n">
-        <v>251.2537386844124</v>
+        <v>27.34986481352255</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.46115954088231</v>
+        <v>27.34986481352255</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.232431292459</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.269914352047</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.004215745297</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1017.004215745297</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>606.0183109556895</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>188.0545028538763</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>188.0545028538763</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5021,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005287</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811259</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441653</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>465.7659634441653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2699138005287</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.534668650886</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>404.5984857229791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>404.5984857229791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>404.5984857229791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811258</v>
+        <v>958.0114883989232</v>
       </c>
       <c r="W16" t="n">
-        <v>755.1831334811258</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X16" t="n">
-        <v>755.1831334811258</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y16" t="n">
-        <v>755.1831334811258</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,13 +5498,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028587</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1458.957072757036</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1259.037062672588</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1259.037062672588</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>1259.037062672588</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.352574466701</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>714.9354044297402</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317229</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5753,10 +5753,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515098</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5838,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531122</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387938</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>496.6650364395581</v>
       </c>
       <c r="X22" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5993,43 +5993,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>354.8462223530088</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>354.8462223530088</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>354.8462223530088</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>225.5200838644059</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116199</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436547</v>
+        <v>296.219337543655</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968145</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6169,28 +6169,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057293</v>
+        <v>1633.682143856243</v>
       </c>
       <c r="S25" t="n">
-        <v>1546.916710021858</v>
+        <v>1452.349088865585</v>
       </c>
       <c r="T25" t="n">
-        <v>1341.718249905154</v>
+        <v>1247.150628748881</v>
       </c>
       <c r="U25" t="n">
-        <v>1071.176566212503</v>
+        <v>976.6089450562297</v>
       </c>
       <c r="V25" t="n">
-        <v>835.0790331004061</v>
+        <v>740.511411944133</v>
       </c>
       <c r="W25" t="n">
-        <v>564.2488181572359</v>
+        <v>469.6811970009625</v>
       </c>
       <c r="X25" t="n">
-        <v>354.8462223530088</v>
+        <v>260.2786011967354</v>
       </c>
       <c r="Y25" t="n">
-        <v>354.8462223530088</v>
+        <v>260.2786011967354</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6239,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6309,22 +6309,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>483.4833010589286</v>
+        <v>247.3857679468315</v>
       </c>
       <c r="C28" t="n">
-        <v>483.4833010589286</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>483.4833010589286</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>483.4833010589286</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>355.1803086548085</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>321.9957811028146</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6385,13 +6385,13 @@
         <v>127.8168586116195</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L28" t="n">
         <v>562.1484572422078</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968141</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
@@ -6403,7 +6403,7 @@
         <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057292</v>
       </c>
       <c r="R28" t="n">
         <v>1552.164719712908</v>
@@ -6415,19 +6415,19 @@
         <v>1165.633204605547</v>
       </c>
       <c r="U28" t="n">
-        <v>895.0915209128955</v>
+        <v>895.0915209128951</v>
       </c>
       <c r="V28" t="n">
-        <v>895.0915209128955</v>
+        <v>658.9939878007985</v>
       </c>
       <c r="W28" t="n">
-        <v>895.0915209128955</v>
+        <v>658.9939878007985</v>
       </c>
       <c r="X28" t="n">
-        <v>685.6889251086684</v>
+        <v>449.5913919965714</v>
       </c>
       <c r="Y28" t="n">
-        <v>483.4833010589286</v>
+        <v>247.3857679468315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,22 +6449,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>2227.840212610278</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>250.3767563387038</v>
+        <v>379.096003612948</v>
       </c>
       <c r="C31" t="n">
-        <v>250.3767563387038</v>
+        <v>228.7467757788314</v>
       </c>
       <c r="D31" t="n">
-        <v>118.8470720201581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8470720201581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F31" t="n">
-        <v>118.8470720201581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>118.8470720201581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>118.8470720201581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968148</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P31" t="n">
         <v>1587.602350397713</v>
@@ -6643,28 +6643,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.652868057293</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T31" t="n">
-        <v>1439.454407940589</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U31" t="n">
-        <v>1168.912724247938</v>
+        <v>895.091520912895</v>
       </c>
       <c r="V31" t="n">
-        <v>932.8151911358411</v>
+        <v>895.091520912895</v>
       </c>
       <c r="W31" t="n">
-        <v>661.9849761926707</v>
+        <v>744.3631373991374</v>
       </c>
       <c r="X31" t="n">
-        <v>452.5823803884437</v>
+        <v>744.3631373991374</v>
       </c>
       <c r="Y31" t="n">
-        <v>250.3767563387038</v>
+        <v>542.1575133493975</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6786,19 +6786,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6926,34 +6926,34 @@
         <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
-        <v>329.4856801922891</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402938</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211003</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538498</v>
       </c>
       <c r="K35" t="n">
-        <v>753.6455877119306</v>
+        <v>700.8111679228793</v>
       </c>
       <c r="L35" t="n">
-        <v>1041.765141350783</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M35" t="n">
-        <v>1394.023096912769</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N35" t="n">
-        <v>2189.5682180168</v>
+        <v>2550.218400632695</v>
       </c>
       <c r="O35" t="n">
-        <v>2895.591279040996</v>
+        <v>3256.24146165689</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296799</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q35" t="n">
         <v>3807.485832605501</v>
@@ -7017,25 +7017,25 @@
         <v>117.6407938174676</v>
       </c>
       <c r="K36" t="n">
-        <v>266.7104780195275</v>
+        <v>379.1771432276876</v>
       </c>
       <c r="L36" t="n">
-        <v>542.6562119693764</v>
+        <v>993.0742129845762</v>
       </c>
       <c r="M36" t="n">
-        <v>1311.024358361838</v>
+        <v>1300.394346264538</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.886986025871</v>
+        <v>1630.25697392857</v>
       </c>
       <c r="O36" t="n">
-        <v>2310.35074732853</v>
+        <v>2299.72073523123</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.373228110739</v>
+        <v>2504.743216013439</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424965</v>
+        <v>456.9802240424969</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001444</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422751</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901216</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211003</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443643</v>
+        <v>155.9829803443637</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173194</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567932</v>
+        <v>688.7815720567929</v>
       </c>
       <c r="M37" t="n">
         <v>1027.79888605232</v>
@@ -7117,16 +7117,16 @@
         <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178346</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T37" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V37" t="n">
         <v>1282.960265051241</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1925.51337246214</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.37094656177</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
         <v>1335.92533899506</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436857</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872905</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922901</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211003</v>
@@ -7175,16 +7175,16 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432325</v>
+        <v>547.3128584977794</v>
       </c>
       <c r="L38" t="n">
-        <v>1415.511460712184</v>
+        <v>835.4324121366317</v>
       </c>
       <c r="M38" t="n">
-        <v>1767.76941627417</v>
+        <v>1632.708765856522</v>
       </c>
       <c r="N38" t="n">
-        <v>2130.341082210336</v>
+        <v>2428.253886960553</v>
       </c>
       <c r="O38" t="n">
         <v>2836.364143234532</v>
@@ -7199,10 +7199,10 @@
         <v>3807.485832605501</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U38" t="n">
         <v>3415.449390176633</v>
@@ -7211,13 +7211,13 @@
         <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643031</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421992</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L39" t="n">
-        <v>1185.651406307348</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M39" t="n">
-        <v>1492.971539587309</v>
+        <v>911.1209628921442</v>
       </c>
       <c r="N39" t="n">
-        <v>1822.834167251342</v>
+        <v>1715.532541156295</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.374232470039</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P39" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026569</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C40" t="n">
-        <v>538.276772414791</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001443</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021373</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901216</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211003</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443642</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173201</v>
       </c>
       <c r="L40" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P40" t="n">
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W40" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963445</v>
+        <v>903.193726196345</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928555</v>
+        <v>751.221238092856</v>
       </c>
     </row>
     <row r="41">
@@ -7394,40 +7394,40 @@
         <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436857</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872897</v>
+        <v>676.7913636872902</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922892</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402936</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211003</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538498</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432325</v>
+        <v>700.8111679228793</v>
       </c>
       <c r="L41" t="n">
-        <v>1474.738596518647</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M41" t="n">
-        <v>1826.996552080634</v>
+        <v>2199.691677686568</v>
       </c>
       <c r="N41" t="n">
-        <v>2189.5682180168</v>
+        <v>2562.263343622735</v>
       </c>
       <c r="O41" t="n">
-        <v>2895.591279040996</v>
+        <v>3105.783119794301</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296799</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q41" t="n">
         <v>3807.485832605501</v>
@@ -7445,16 +7445,16 @@
         <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873104</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643031</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.612362421992</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L42" t="n">
-        <v>900.1263155554491</v>
+        <v>1142.428132418869</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.446448835411</v>
+        <v>1449.74826569883</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.309076499443</v>
+        <v>1779.610893362863</v>
       </c>
       <c r="O42" t="n">
-        <v>1816.84914171814</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P42" t="n">
         <v>2307.396713252248</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026568</v>
+        <v>638.3928643026567</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147909</v>
+        <v>538.2767724147908</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001442</v>
+        <v>377.8872215001441</v>
       </c>
       <c r="F43" t="n">
-        <v>299.817365042275</v>
+        <v>299.8173650422748</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021367</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901211</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211003</v>
@@ -7573,7 +7573,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567933</v>
+        <v>688.781572056793</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7612,7 +7612,7 @@
         <v>903.1937261963444</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928554</v>
+        <v>751.2212380928553</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538498</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432325</v>
+        <v>700.8111679228793</v>
       </c>
       <c r="L44" t="n">
-        <v>1569.82097298703</v>
+        <v>988.9307215617316</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.078928549017</v>
+        <v>1653.376682196073</v>
       </c>
       <c r="N44" t="n">
-        <v>2284.650594485183</v>
+        <v>2448.921803300104</v>
       </c>
       <c r="O44" t="n">
-        <v>2895.591279040996</v>
+        <v>3154.9448643243</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296799</v>
+        <v>3401.264108490335</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799038</v>
       </c>
       <c r="R44" t="n">
         <v>3807.485832605501</v>
@@ -7725,28 +7725,28 @@
         <v>76.14971665211003</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>391.5406030065323</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3057309129963</v>
+        <v>775.2961905684443</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.673877305458</v>
+        <v>1082.616323848406</v>
       </c>
       <c r="N45" t="n">
-        <v>2030.810682109833</v>
+        <v>1887.027902112557</v>
       </c>
       <c r="O45" t="n">
-        <v>2310.35074732853</v>
+        <v>2299.72073523123</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.373228110739</v>
+        <v>2504.743216013439</v>
       </c>
       <c r="Q45" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7783,61 +7783,61 @@
         <v>638.3928643026572</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021373</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211003</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443643</v>
+        <v>155.9829803443642</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173201</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N46" t="n">
         <v>1365.793566308212</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P46" t="n">
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,7 +7846,7 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963448</v>
+        <v>903.1937261963452</v>
       </c>
       <c r="Y46" t="n">
         <v>751.2212380928559</v>
@@ -8058,25 +8058,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>212.3582274761389</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>355.6828477962906</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>184.8940149111293</v>
+        <v>165.681517333625</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>434.089612285691</v>
+        <v>434.08961228569</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209649</v>
+        <v>421.9761166209638</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>95.72265612446211</v>
       </c>
       <c r="P6" t="n">
-        <v>96.35422033900019</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8336753070145</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127833</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>398.9629823660895</v>
       </c>
       <c r="N15" t="n">
-        <v>52.4973336130526</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>22.04402060665578</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>41.75994765618401</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6241510367952</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.13752431970582</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>208.4168981961124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>169.8205850779581</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>5.891030169484367</v>
@@ -10665,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>113.6026921294546</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978271</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>261.7930203334333</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>79.87815626252677</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776753</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>91.23759968302136</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>321.6184100369318</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>216.6554490883722</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>5.891030169484367</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>43.65987261462482</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>315.3414192650056</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>284.7573767492269</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>297.2466435761037</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>134.4977453535113</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>169.5835642048945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>7.607036166242508</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>224.4268224434054</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>70.40474658093476</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>213.0220289556694</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>48.84084321165233</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>148.8457355557755</v>
@@ -24370,19 +24370,19 @@
         <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H25" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141965</v>
+        <v>92.01815992141968</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094044</v>
+        <v>80.70224990190114</v>
       </c>
       <c r="S25" t="n">
-        <v>82.7609279856709</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>0.1787458340953947</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037168</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>115.2398006440513</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.01815992141968</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>268.1219127937387</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F31" t="n">
         <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H31" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>70.60447916714612</v>
+        <v>92.01815992141968</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094044</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>118.9008131151186</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961691.9181762058</v>
+        <v>961691.9181762057</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961691.9181762059</v>
+        <v>961691.9181762058</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974063.1623021286</v>
+        <v>974063.1623021287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>974063.1623021289</v>
+        <v>974063.1623021287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>974063.1623021289</v>
+        <v>974063.1623021287</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719625</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
         <v>455737.4317812634</v>
       </c>
       <c r="J2" t="n">
-        <v>455737.4317812635</v>
+        <v>455737.4317812633</v>
       </c>
       <c r="K2" t="n">
-        <v>455737.4317812635</v>
+        <v>455737.4317812633</v>
       </c>
       <c r="L2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="M2" t="n">
+        <v>472099.0176719628</v>
+      </c>
+      <c r="N2" t="n">
         <v>472099.0176719626</v>
       </c>
-      <c r="M2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>472099.0176719627</v>
       </c>
-      <c r="O2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="P2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719635</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794799</v>
+        <v>72744.75223794574</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936396</v>
+        <v>348321.8962936417</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>14720.86843428185</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303611</v>
+        <v>16913.40047303552</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.6258741629</v>
+        <v>123915.6258741634</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762908</v>
+        <v>69175.08933762912</v>
       </c>
       <c r="N3" t="n">
         <v>14720.86843428186</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211186</v>
+        <v>296337.3092211192</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.4214831656</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="F4" t="n">
+        <v>43561.42148316554</v>
+      </c>
+      <c r="G4" t="n">
         <v>43561.42148316557</v>
       </c>
-      <c r="G4" t="n">
-        <v>43561.42148316556</v>
-      </c>
       <c r="H4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316554</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.29565456442</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="J4" t="n">
-        <v>49616.29565456442</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456442</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448606</v>
+        <v>65980.20872448603</v>
       </c>
       <c r="M4" t="n">
+        <v>99837.12979766786</v>
+      </c>
+      <c r="N4" t="n">
         <v>99837.12979766785</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>99837.12979766783</v>
       </c>
-      <c r="O4" t="n">
-        <v>99837.12979766785</v>
-      </c>
       <c r="P4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049171</v>
+        <v>56410.20653049154</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>93534.2868092187</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921867</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>81703.90096581176</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581177</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22302.67172854271</v>
+        <v>-22302.67172854266</v>
       </c>
       <c r="C6" t="n">
-        <v>46606.74968240433</v>
+        <v>46606.74968240607</v>
       </c>
       <c r="D6" t="n">
-        <v>-151288.5530775159</v>
+        <v>-151288.5530775178</v>
       </c>
       <c r="E6" t="n">
-        <v>-211025.3652104131</v>
+        <v>-211122.8243363851</v>
       </c>
       <c r="F6" t="n">
-        <v>314134.6712664829</v>
+        <v>314037.2121405108</v>
       </c>
       <c r="G6" t="n">
-        <v>314134.6712664831</v>
+        <v>314037.212140511</v>
       </c>
       <c r="H6" t="n">
-        <v>314134.6712664829</v>
+        <v>314037.212140511</v>
       </c>
       <c r="I6" t="n">
-        <v>297865.9808831985</v>
+        <v>297794.843553239</v>
       </c>
       <c r="J6" t="n">
-        <v>240332.1544463413</v>
+        <v>240261.0171163815</v>
       </c>
       <c r="K6" t="n">
-        <v>295673.4488444443</v>
+        <v>295602.3115144852</v>
       </c>
       <c r="L6" t="n">
-        <v>184488.0772532883</v>
+        <v>184488.0772532878</v>
       </c>
       <c r="M6" t="n">
-        <v>221382.8975708542</v>
+        <v>221382.8975708541</v>
       </c>
       <c r="N6" t="n">
         <v>275837.1184742012</v>
       </c>
       <c r="O6" t="n">
-        <v>290557.9869084834</v>
+        <v>290557.9869084831</v>
       </c>
       <c r="P6" t="n">
-        <v>290557.9869084834</v>
+        <v>290557.9869084838</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020407</v>
+        <v>91.59216845020237</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690339</v>
+        <v>341.8733101690319</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>18.40108554285231</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678833</v>
+        <v>49.73080458678834</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285232</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107878</v>
+        <v>56.57090773107702</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668826</v>
+        <v>286.1514957668843</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667849</v>
+        <v>65.71679646667643</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855217</v>
+        <v>332.4139625855237</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667849</v>
+        <v>65.7167964666762</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855214</v>
+        <v>332.4139625855237</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968197</v>
+        <v>277.58418539682</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>18.40108554285231</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667849</v>
+        <v>65.71679646667643</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855217</v>
+        <v>332.4139625855237</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>376.0289757810328</v>
+        <v>241.3255268393445</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>70.01350377340106</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>181.1794182723804</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.19643759900805</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27591,7 +27591,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>60.70567510156548</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>40.05705990322986</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>307.1970007754113</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470833</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656316</v>
+        <v>126.739563965632</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.629490536762</v>
       </c>
       <c r="T5" t="n">
-        <v>221.484011504269</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3161961300435</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>7.367658548379097</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>27.85779050943512</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.613627923735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923662</v>
+        <v>87.92595927923686</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>43.92113947252849</v>
       </c>
       <c r="U6" t="n">
-        <v>118.9185582763712</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>160.7586947903199</v>
       </c>
       <c r="I7" t="n">
-        <v>150.4834766775325</v>
+        <v>150.4834766775326</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475085</v>
+        <v>81.68192939475108</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.080181780086363</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571356</v>
+        <v>72.33162581571383</v>
       </c>
       <c r="R7" t="n">
-        <v>169.866918177912</v>
+        <v>169.8669181779121</v>
       </c>
       <c r="S7" t="n">
-        <v>221.1382015301027</v>
+        <v>221.1382015301028</v>
       </c>
       <c r="T7" t="n">
         <v>227.2398792779275</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3100202907417</v>
+        <v>39.11649653841758</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>200.1809667688917</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>19.16091042168449</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>102.4453448844919</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>14.65885272800598</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.206962611348483e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285235</v>
+        <v>18.40108554285231</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V35" t="n">
         <v>68.13189012964091</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964045</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128804</v>
+        <v>0.3682097224128735</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660912</v>
+        <v>3.770927819660842</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332259</v>
+        <v>14.19540532332232</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764024</v>
+        <v>31.25133992763966</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737748</v>
+        <v>46.8376574773766</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576967067</v>
+        <v>58.10625576966959</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063074</v>
+        <v>64.65440542062953</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443633</v>
+        <v>65.70058129443511</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719325</v>
+        <v>62.0391958671921</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512526</v>
+        <v>52.94901834512427</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121397</v>
+        <v>39.76250766121323</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551812</v>
+        <v>23.12955397551769</v>
       </c>
       <c r="S5" t="n">
-        <v>8.39057904948352</v>
+        <v>8.390579049483364</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862385</v>
+        <v>1.611838059862355</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303043</v>
+        <v>0.02945677779302988</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740238</v>
+        <v>0.1970095698740202</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993862</v>
+        <v>1.902697687993827</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680208</v>
+        <v>6.783004927680082</v>
       </c>
       <c r="J6" t="n">
-        <v>18.613083967791</v>
+        <v>18.61308396779065</v>
       </c>
       <c r="K6" t="n">
-        <v>31.8127251493506</v>
+        <v>31.81272514935001</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742786</v>
+        <v>42.77613489742706</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536121</v>
+        <v>49.91773180536028</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140237</v>
+        <v>51.23890563140142</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998321</v>
+        <v>46.87358831998234</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707533005</v>
+        <v>37.62018707532935</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900698</v>
+        <v>25.14809877900651</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2318748734065</v>
+        <v>12.23187487340627</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703906</v>
+        <v>3.659366352703838</v>
       </c>
       <c r="T6" t="n">
-        <v>0.794086818922052</v>
+        <v>0.7940868189220373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276473</v>
+        <v>0.01296115591276449</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020073</v>
+        <v>0.1651662054020042</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119666</v>
+        <v>1.468477717119639</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725822</v>
+        <v>4.966998249725729</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192192</v>
+        <v>11.6772507219217</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579685</v>
+        <v>19.18931004579649</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040389</v>
+        <v>24.55571021040344</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224374</v>
+        <v>25.89055345224326</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938174</v>
+        <v>25.27493395938127</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809464</v>
+        <v>23.34549237809421</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789368</v>
+        <v>19.97610178789331</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598081</v>
+        <v>13.83041743598056</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257527</v>
+        <v>7.426473199257389</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869527</v>
+        <v>2.878396506869473</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540311</v>
+        <v>0.705710150354018</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00900906574920041</v>
+        <v>0.009009065749200242</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>100.6082676511396</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>231.0092291087367</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302772</v>
+        <v>19.30205057302714</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035617</v>
+        <v>150.8932190035608</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501339</v>
+        <v>240.0010553501328</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861905</v>
+        <v>283.8217056861893</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098296</v>
+        <v>273.6344421098283</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082519</v>
+        <v>212.7411657082507</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613384</v>
+        <v>143.5147307613374</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666916</v>
+        <v>29.77180844666842</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.86649264153315</v>
+        <v>17.8664926415328</v>
       </c>
       <c r="K6" t="n">
-        <v>78.86530108612088</v>
+        <v>59.65280350861598</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210129</v>
+        <v>275.0621004210121</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690339</v>
+        <v>341.8733101690319</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690339</v>
+        <v>341.8733101690319</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522683</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>222.1085483009363</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>95.2436124288341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547072003</v>
+        <v>52.14573547071957</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408434</v>
+        <v>65.47443041408386</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861033</v>
+        <v>69.40710633860986</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213432</v>
+        <v>47.93062029213388</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278717</v>
+        <v>17.25466105278679</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35416,7 +35416,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>709.3873594165557</v>
       </c>
       <c r="N15" t="n">
-        <v>385.6919070110654</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35747,7 +35747,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>166.413487634168</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36206,7 +36206,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>229.1374355381804</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36361,7 +36361,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>374.9545210541968</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841783</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M25" t="n">
         <v>292.7109267218249</v>
@@ -36528,13 +36528,13 @@
         <v>291.6779633484559</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P25" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.6267855147271</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>277.0152755513209</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841783</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L28" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M28" t="n">
         <v>292.7109267218249</v>
@@ -36765,13 +36765,13 @@
         <v>291.6779633484559</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.6267855147271</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,13 +36920,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>311.7175659683198</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841783</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L31" t="n">
-        <v>268.6152724227809</v>
+        <v>268.6152724227808</v>
       </c>
       <c r="M31" t="n">
         <v>292.7109267218249</v>
@@ -37002,13 +37002,13 @@
         <v>291.6779633484559</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634551</v>
       </c>
       <c r="P31" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.6267855147271</v>
+        <v>57.62678551472706</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K35" t="n">
-        <v>412.9612417552806</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>355.8161167292791</v>
@@ -37321,10 +37321,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>418.6279024173877</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903001</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>264.1781307173939</v>
       </c>
       <c r="L36" t="n">
-        <v>278.733064595807</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37406,7 +37406,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>204.5443435591682</v>
       </c>
       <c r="L38" t="n">
-        <v>552.82287249389</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M38" t="n">
-        <v>355.8161167292791</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>412.2325820949286</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336995</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>401.6619767334876</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>612.6482621973886</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>355.8161167292791</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>549.009874920774</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903001</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557329</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292791</v>
+        <v>671.1575359942847</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>617.1118025816287</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394296</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>630.4412169741165</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>416.8614475946194</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
@@ -38117,7 +38117,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
